--- a/biology/Botanique/Chassalia_cristata/Chassalia_cristata.xlsx
+++ b/biology/Botanique/Chassalia_cristata/Chassalia_cristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chassalia cristata est une espèce de plantes d’Afrique tropicale du genre Chassalia et la famille des Rubiacées[2],[3]. Les synonymes de cette espèce sont Chassalia lacuum, Myrstiphyllu christatum, Psychotria christata et Uragoga christata.[3] 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chassalia cristata est une espèce de plantes d’Afrique tropicale du genre Chassalia et la famille des Rubiacées,. Les synonymes de cette espèce sont Chassalia lacuum, Myrstiphyllu christatum, Psychotria christata et Uragoga christata. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de C. christata sont simples, elliptiques et glabres. Les fleurs blanches sont groupées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de C. christata sont simples, elliptiques et glabres. Les fleurs blanches sont groupées.
 </t>
         </is>
       </c>
